--- a/Tools/Luban/Datas/__enums__.xlsx
+++ b/Tools/Luban/Datas/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\MillionDollars\Tools\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D1DD20-D99A-4DA0-AF70-BEAF30BFF5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19ADA3E-FB75-44DE-99D2-AA47819BDFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -81,102 +81,6 @@
   </si>
   <si>
     <t>alias</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Props.Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WINE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MELEE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BULLET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTHER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Props.PropInfoTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORLD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTOR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPON</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTHING</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="B4:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -744,27 +648,15 @@
     </row>
     <row r="4" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
@@ -776,15 +668,9 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
@@ -796,15 +682,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
@@ -816,15 +696,9 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="6">
-        <v>3</v>
-      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
@@ -836,15 +710,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="6">
-        <v>4</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
@@ -856,41 +724,23 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="6">
-        <v>5</v>
-      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
@@ -902,15 +752,9 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
@@ -922,15 +766,9 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
@@ -942,15 +780,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="6">
-        <v>3</v>
-      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
@@ -962,15 +794,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="6">
-        <v>4</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>

--- a/Tools/Luban/Datas/__enums__.xlsx
+++ b/Tools/Luban/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19ADA3E-FB75-44DE-99D2-AA47819BDFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F52624A-4B92-4A31-8EC9-ACBF3B263A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -81,6 +81,66 @@
   </si>
   <si>
     <t>alias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UiSkin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.GoodsType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponSkin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BodySkin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldSkin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DieAnimation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnAnimation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器皮肤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞船皮肤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾皮肤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -538,16 +598,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="B4:J14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
@@ -648,15 +708,25 @@
     </row>
     <row r="4" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
@@ -668,9 +738,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
@@ -682,9 +758,15 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
@@ -696,9 +778,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
@@ -710,9 +798,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
@@ -724,9 +818,15 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
@@ -738,9 +838,15 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="6">
+        <v>6</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
@@ -1668,6 +1774,20 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
+    <row r="77" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
